--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_CHOICE.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_CHOICE.xlsx
@@ -53,12 +53,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="AA8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Petrenko, Viktor (C):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+User for MSRP PAS-730</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="83">
   <si>
     <t>VIN</t>
   </si>
@@ -288,17 +312,32 @@
     <t>SYMBOL_2000_CHOICE</t>
   </si>
   <si>
-    <t>SYMBOL_2000_CHOICE_T</t>
-  </si>
-  <si>
     <t>TOYOTA</t>
+  </si>
+  <si>
+    <t>BBBKN3DD&amp;E</t>
+  </si>
+  <si>
+    <t>MAKEPAS2713ENDOR</t>
+  </si>
+  <si>
+    <t>MODELPAS2713ENDOR</t>
+  </si>
+  <si>
+    <t>SERIESPAS2713ENDOR</t>
+  </si>
+  <si>
+    <t>BODYTYPEPAS2713ENDOR</t>
+  </si>
+  <si>
+    <t>BODYSTYLEPAS2713ENDOR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +372,12 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -360,12 +405,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -648,21 +696,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL7"/>
+  <dimension ref="A1:AL9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5546875" customWidth="1"/>
     <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.77734375" customWidth="1"/>
     <col min="21" max="21" width="22.88671875" customWidth="1"/>
     <col min="23" max="23" width="22.21875" customWidth="1"/>
@@ -800,13 +850,13 @@
         <v>75</v>
       </c>
       <c r="C2" s="3">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -916,7 +966,7 @@
         <v>75</v>
       </c>
       <c r="C3" s="3">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D3" t="s">
         <v>57</v>
@@ -1032,7 +1082,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="3">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D4" t="s">
         <v>57</v>
@@ -1148,7 +1198,7 @@
         <v>75</v>
       </c>
       <c r="C5" s="3">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D5" t="s">
         <v>57</v>
@@ -1264,7 +1314,7 @@
         <v>75</v>
       </c>
       <c r="C6" s="3">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D6" t="s">
         <v>57</v>
@@ -1380,7 +1430,7 @@
         <v>75</v>
       </c>
       <c r="C7" s="3">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D7" t="s">
         <v>63</v>
@@ -1487,6 +1537,125 @@
       <c r="AL7" t="s">
         <v>50</v>
       </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="3">
+        <v>88888</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" s="3">
+        <v>12</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>214</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S8" s="3">
+        <v>4</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V8" s="3">
+        <v>2</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>33</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>43</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI8">
+        <v>20000101</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_CHOICE.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_CHOICE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gp8john\Desktop\SUITE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="82">
   <si>
     <t>VIN</t>
   </si>
@@ -240,9 +240,6 @@
     <t>TEST</t>
   </si>
   <si>
-    <t>1FDEU15H&amp;K</t>
-  </si>
-  <si>
     <t>STAT</t>
   </si>
   <si>
@@ -306,9 +303,6 @@
     <t>ThirdValid</t>
   </si>
   <si>
-    <t>2FDEU15H&amp;K</t>
-  </si>
-  <si>
     <t>SYMBOL_2000_CHOICE</t>
   </si>
   <si>
@@ -331,6 +325,9 @@
   </si>
   <si>
     <t>BODYSTYLEPAS2713ENDOR</t>
+  </si>
+  <si>
+    <t>AAAVB3CC&amp;W</t>
   </si>
 </sst>
 </file>
@@ -699,34 +696,34 @@
   <dimension ref="A1:AL9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.77734375" customWidth="1"/>
-    <col min="21" max="21" width="22.88671875" customWidth="1"/>
-    <col min="23" max="23" width="22.21875" customWidth="1"/>
-    <col min="24" max="24" width="20.88671875" customWidth="1"/>
-    <col min="25" max="25" width="34.77734375" customWidth="1"/>
-    <col min="26" max="26" width="6.5546875" customWidth="1"/>
-    <col min="27" max="27" width="14.88671875" customWidth="1"/>
-    <col min="28" max="29" width="16.21875" customWidth="1"/>
-    <col min="35" max="35" width="15.109375" customWidth="1"/>
-    <col min="37" max="37" width="22.6640625" customWidth="1"/>
-    <col min="38" max="38" width="21.77734375" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" customWidth="1"/>
+    <col min="21" max="21" width="22.85546875" customWidth="1"/>
+    <col min="23" max="23" width="22.28515625" customWidth="1"/>
+    <col min="24" max="24" width="20.85546875" customWidth="1"/>
+    <col min="25" max="25" width="34.7109375" customWidth="1"/>
+    <col min="26" max="26" width="6.5703125" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" customWidth="1"/>
+    <col min="28" max="29" width="16.28515625" customWidth="1"/>
+    <col min="35" max="35" width="15.140625" customWidth="1"/>
+    <col min="37" max="37" width="22.7109375" customWidth="1"/>
+    <col min="38" max="38" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -803,7 +800,7 @@
         <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>25</v>
@@ -812,7 +809,7 @@
         <v>26</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>27</v>
@@ -842,21 +839,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2" s="3">
         <v>2018</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -919,7 +916,7 @@
         <v>37</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA2" s="3">
         <v>39</v>
@@ -934,16 +931,16 @@
         <v>38</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AI2">
         <v>20010101</v>
@@ -958,24 +955,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" s="3">
         <v>2018</v>
       </c>
       <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
         <v>57</v>
       </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>28</v>
@@ -1035,7 +1032,7 @@
         <v>37</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA3" s="3">
         <v>39</v>
@@ -1050,16 +1047,16 @@
         <v>38</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AI3">
         <v>20000101</v>
@@ -1074,24 +1071,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C4" s="3">
         <v>2018</v>
       </c>
       <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
         <v>57</v>
       </c>
-      <c r="E4" t="s">
-        <v>58</v>
-      </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>28</v>
@@ -1151,7 +1148,7 @@
         <v>37</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA4" s="3">
         <v>39</v>
@@ -1166,16 +1163,16 @@
         <v>38</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI4">
         <v>20150101</v>
@@ -1190,24 +1187,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" s="3">
         <v>2018</v>
       </c>
       <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
         <v>57</v>
       </c>
-      <c r="E5" t="s">
-        <v>58</v>
-      </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>28</v>
@@ -1267,7 +1264,7 @@
         <v>37</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AA5" s="3">
         <v>39</v>
@@ -1282,16 +1279,16 @@
         <v>38</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AI5">
         <v>20190101</v>
@@ -1306,21 +1303,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" s="3">
         <v>2018</v>
       </c>
       <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
         <v>57</v>
-      </c>
-      <c r="E6" t="s">
-        <v>58</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -1383,7 +1380,7 @@
         <v>37</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AA6" s="3">
         <v>39</v>
@@ -1398,16 +1395,16 @@
         <v>38</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AI6">
         <v>20190101</v>
@@ -1422,27 +1419,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" s="3">
         <v>2018</v>
       </c>
       <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
         <v>63</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="F7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="H7" s="3">
         <v>88888</v>
@@ -1451,19 +1448,19 @@
         <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O7" s="3">
         <v>12</v>
@@ -1475,7 +1472,7 @@
         <v>214</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S7" s="3">
         <v>4</v>
@@ -1499,7 +1496,7 @@
         <v>37</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA7" s="3">
         <v>33</v>
@@ -1508,22 +1505,22 @@
         <v>43</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AD7" s="3" t="s">
         <v>38</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AH7" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AI7">
         <v>20000101</v>
@@ -1538,27 +1535,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C8" s="3">
         <v>2018</v>
       </c>
       <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" t="s">
         <v>78</v>
-      </c>
-      <c r="E8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" t="s">
-        <v>80</v>
       </c>
       <c r="H8" s="3">
         <v>88888</v>
@@ -1567,19 +1564,19 @@
         <v>29</v>
       </c>
       <c r="J8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O8" s="3">
         <v>12</v>
@@ -1591,7 +1588,7 @@
         <v>214</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S8" s="3">
         <v>4</v>
@@ -1615,7 +1612,7 @@
         <v>37</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA8" s="3">
         <v>33</v>
@@ -1624,22 +1621,22 @@
         <v>43</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AD8" s="3" t="s">
         <v>38</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AH8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AI8">
         <v>20000101</v>
@@ -1654,7 +1651,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
     </row>
   </sheetData>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_CHOICE.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_CHOICE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gp8john\Desktop\SUITE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gp8john\Documents\CSAA\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -309,9 +309,6 @@
     <t>TOYOTA</t>
   </si>
   <si>
-    <t>BBBKN3DD&amp;E</t>
-  </si>
-  <si>
     <t>MAKEPAS2713ENDOR</t>
   </si>
   <si>
@@ -328,6 +325,9 @@
   </si>
   <si>
     <t>AAAVB3CC&amp;W</t>
+  </si>
+  <si>
+    <t>GGGVB2CC&amp;W</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
   <dimension ref="A1:AL9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,7 +841,7 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>73</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>73</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>73</v>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>73</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>73</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>73</v>
@@ -1546,16 +1546,16 @@
         <v>2018</v>
       </c>
       <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" t="s">
         <v>76</v>
       </c>
-      <c r="E8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>77</v>
-      </c>
-      <c r="G8" t="s">
-        <v>78</v>
       </c>
       <c r="H8" s="3">
         <v>88888</v>
@@ -1564,13 +1564,13 @@
         <v>29</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>64</v>
       </c>
       <c r="L8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>29</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_CHOICE.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_CHOICE.xlsx
@@ -696,7 +696,7 @@
   <dimension ref="A1:AL9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,10 +1499,10 @@
         <v>65</v>
       </c>
       <c r="AA7" s="3">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="AB7" s="3">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AC7" s="3" t="s">
         <v>55</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_CHOICE.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_CHOICE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gp8john\Documents\CSAA\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9732"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,36 +53,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Petrenko, Viktor (C):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-User for MSRP PAS-730</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="76">
   <si>
     <t>VIN</t>
   </si>
@@ -309,25 +285,7 @@
     <t>TOYOTA</t>
   </si>
   <si>
-    <t>MAKEPAS2713ENDOR</t>
-  </si>
-  <si>
-    <t>MODELPAS2713ENDOR</t>
-  </si>
-  <si>
-    <t>SERIESPAS2713ENDOR</t>
-  </si>
-  <si>
-    <t>BODYTYPEPAS2713ENDOR</t>
-  </si>
-  <si>
-    <t>BODYSTYLEPAS2713ENDOR</t>
-  </si>
-  <si>
     <t>AAAVB3CC&amp;W</t>
-  </si>
-  <si>
-    <t>GGGVB2CC&amp;W</t>
   </si>
 </sst>
 </file>
@@ -693,37 +651,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL9"/>
+  <dimension ref="A1:AL8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD17" sqref="AD17"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" customWidth="1"/>
-    <col min="21" max="21" width="22.85546875" customWidth="1"/>
-    <col min="23" max="23" width="22.28515625" customWidth="1"/>
-    <col min="24" max="24" width="20.85546875" customWidth="1"/>
-    <col min="25" max="25" width="34.7109375" customWidth="1"/>
-    <col min="26" max="26" width="6.5703125" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" customWidth="1"/>
-    <col min="28" max="29" width="16.28515625" customWidth="1"/>
-    <col min="35" max="35" width="15.140625" customWidth="1"/>
-    <col min="37" max="37" width="22.7109375" customWidth="1"/>
-    <col min="38" max="38" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" customWidth="1"/>
+    <col min="21" max="21" width="22.88671875" customWidth="1"/>
+    <col min="23" max="23" width="22.33203125" customWidth="1"/>
+    <col min="24" max="24" width="20.88671875" customWidth="1"/>
+    <col min="25" max="25" width="34.6640625" customWidth="1"/>
+    <col min="26" max="26" width="6.5546875" customWidth="1"/>
+    <col min="27" max="27" width="14.88671875" customWidth="1"/>
+    <col min="28" max="29" width="16.33203125" customWidth="1"/>
+    <col min="35" max="35" width="15.109375" customWidth="1"/>
+    <col min="37" max="37" width="22.6640625" customWidth="1"/>
+    <col min="38" max="38" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -839,9 +797,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>73</v>
@@ -955,9 +913,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>73</v>
@@ -1071,9 +1029,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>73</v>
@@ -1187,9 +1145,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>73</v>
@@ -1303,9 +1261,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>73</v>
@@ -1419,7 +1377,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -1535,124 +1493,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2018</v>
-      </c>
-      <c r="D8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="3">
-        <v>88888</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" t="s">
-        <v>79</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O8" s="3">
-        <v>12</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>214</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S8" s="3">
-        <v>4</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V8" s="3">
-        <v>2</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>33</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>43</v>
-      </c>
-      <c r="AC8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI8">
-        <v>20000101</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_CHOICE.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_CHOICE.xlsx
@@ -23,42 +23,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Petrenko, Viktor (C)</author>
-  </authors>
-  <commentList>
-    <comment ref="AA7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Petrenko, Viktor (C):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-User for MSRP PAS-730</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="68">
   <si>
     <t>VIN</t>
   </si>
@@ -234,31 +200,7 @@
     <t>CA_MAKE_TEXT</t>
   </si>
   <si>
-    <t>8L V12</t>
-  </si>
-  <si>
-    <t>4WD</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>VOLKSWAGEN</t>
-  </si>
-  <si>
-    <t>GOLF</t>
-  </si>
-  <si>
-    <t>HATCHBACK 4 DOOR</t>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>7MSRP15H&amp;V</t>
   </si>
   <si>
     <t>B</t>
@@ -292,7 +234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,19 +255,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -367,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -650,11 +579,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -799,19 +728,19 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C2" s="3">
         <v>2018</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -915,10 +844,10 @@
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C3" s="3">
         <v>2018</v>
@@ -930,7 +859,7 @@
         <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>28</v>
@@ -1005,16 +934,16 @@
         <v>38</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="AI3">
         <v>20000101</v>
@@ -1031,10 +960,10 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C4" s="3">
         <v>2018</v>
@@ -1046,7 +975,7 @@
         <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>28</v>
@@ -1121,16 +1050,16 @@
         <v>38</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AI4">
         <v>20150101</v>
@@ -1147,10 +1076,10 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C5" s="3">
         <v>2018</v>
@@ -1162,7 +1091,7 @@
         <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>28</v>
@@ -1222,7 +1151,7 @@
         <v>37</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="AA5" s="3">
         <v>39</v>
@@ -1237,16 +1166,16 @@
         <v>38</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AI5">
         <v>20190101</v>
@@ -1263,10 +1192,10 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C6" s="3">
         <v>2018</v>
@@ -1338,7 +1267,7 @@
         <v>37</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="AA6" s="3">
         <v>39</v>
@@ -1353,16 +1282,16 @@
         <v>38</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AI6">
         <v>20190101</v>
@@ -1378,127 +1307,10 @@
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2018</v>
-      </c>
-      <c r="D7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="3">
-        <v>88888</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O7" s="3">
-        <v>12</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>214</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S7" s="3">
-        <v>4</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V7" s="3">
-        <v>2</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>66</v>
-      </c>
-      <c r="AB7" s="3">
-        <v>55</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI7">
-        <v>20000101</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
+      <c r="B7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_CHOICE.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_CHOICE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gp8john\Documents\CSAA\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CSAA\CODE\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9732"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,66 +23,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Petrenko, Viktor (C)</author>
-  </authors>
-  <commentList>
-    <comment ref="AA7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Petrenko, Viktor (C):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-User for MSRP PAS-730</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Petrenko, Viktor (C):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-User for MSRP PAS-730</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="63">
   <si>
     <t>VIN</t>
   </si>
@@ -165,176 +107,119 @@
     <t>COMP_SYMBOL</t>
   </si>
   <si>
+    <t>MDX ADVANCE</t>
+  </si>
+  <si>
+    <t>WAG</t>
+  </si>
+  <si>
+    <t>SUV</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>2WD</t>
+  </si>
+  <si>
+    <t>000R</t>
+  </si>
+  <si>
+    <t>DUAL AIR BAGS FRONT</t>
+  </si>
+  <si>
+    <t>4 WHEEL STANDARD</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>B-IMMOBILIZER/KEYLSS ENTRY/ALARM</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Gt</t>
+  </si>
+  <si>
+    <t>4.5L V10</t>
+  </si>
+  <si>
+    <t>BI_SYMBOL</t>
+  </si>
+  <si>
+    <t>PD_SYMBOL</t>
+  </si>
+  <si>
+    <t>UM_SYMBOL</t>
+  </si>
+  <si>
+    <t>MP_SYMBOL</t>
+  </si>
+  <si>
+    <t>ENTRYDATE</t>
+  </si>
+  <si>
+    <t>VALID</t>
+  </si>
+  <si>
+    <t>ANTITHEFT_DISCOUNT</t>
+  </si>
+  <si>
+    <t>RESTRAINTS_DISCOUNT</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>CA_MAKE</t>
+  </si>
+  <si>
+    <t>CA_MAKE_TEXT</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>invalidVin</t>
+  </si>
+  <si>
+    <t>SecondValid</t>
+  </si>
+  <si>
+    <t>ThirdValid</t>
+  </si>
+  <si>
+    <t>SYMBOL_2000_CHOICE</t>
+  </si>
+  <si>
+    <t>TOYOTA</t>
+  </si>
+  <si>
+    <t>AAAVB3CC&amp;W</t>
+  </si>
+  <si>
     <t>ALTFUEL</t>
-  </si>
-  <si>
-    <t>MDX ADVANCE</t>
-  </si>
-  <si>
-    <t>WAG</t>
-  </si>
-  <si>
-    <t>SUV</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>2WD</t>
-  </si>
-  <si>
-    <t>000R</t>
-  </si>
-  <si>
-    <t>DUAL AIR BAGS FRONT</t>
-  </si>
-  <si>
-    <t>4 WHEEL STANDARD</t>
-  </si>
-  <si>
-    <t>STD</t>
-  </si>
-  <si>
-    <t>B-IMMOBILIZER/KEYLSS ENTRY/ALARM</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Gt</t>
-  </si>
-  <si>
-    <t>4.5L V10</t>
-  </si>
-  <si>
-    <t>BI_SYMBOL</t>
-  </si>
-  <si>
-    <t>PD_SYMBOL</t>
-  </si>
-  <si>
-    <t>UM_SYMBOL</t>
-  </si>
-  <si>
-    <t>MP_SYMBOL</t>
-  </si>
-  <si>
-    <t>ENTRYDATE</t>
-  </si>
-  <si>
-    <t>VALID</t>
-  </si>
-  <si>
-    <t>ANTITHEFT_DISCOUNT</t>
-  </si>
-  <si>
-    <t>RESTRAINTS_DISCOUNT</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>STAT</t>
-  </si>
-  <si>
-    <t>CHOICE_TIER</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>CA_MAKE</t>
-  </si>
-  <si>
-    <t>CA_MAKE_TEXT</t>
-  </si>
-  <si>
-    <t>8L V12</t>
-  </si>
-  <si>
-    <t>4WD</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>VOLKSWAGEN</t>
-  </si>
-  <si>
-    <t>GOLF</t>
-  </si>
-  <si>
-    <t>HATCHBACK 4 DOOR</t>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>7MSRP15H&amp;V</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>invalidVin</t>
-  </si>
-  <si>
-    <t>SecondValid</t>
-  </si>
-  <si>
-    <t>ThirdValid</t>
-  </si>
-  <si>
-    <t>SYMBOL_2000_CHOICE</t>
-  </si>
-  <si>
-    <t>TOYOTA</t>
-  </si>
-  <si>
-    <t>MAKEPAS2713ENDOR</t>
-  </si>
-  <si>
-    <t>MODELPAS2713ENDOR</t>
-  </si>
-  <si>
-    <t>SERIESPAS2713ENDOR</t>
-  </si>
-  <si>
-    <t>BODYTYPEPAS2713ENDOR</t>
-  </si>
-  <si>
-    <t>BODYSTYLEPAS2713ENDOR</t>
-  </si>
-  <si>
-    <t>AAAVB3CC&amp;W</t>
-  </si>
-  <si>
-    <t>GGGVB2CC&amp;W</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,19 +240,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -409,7 +281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -692,38 +564,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD17" sqref="AD17"/>
+      <selection activeCell="K20" sqref="K20:L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" customWidth="1"/>
-    <col min="21" max="21" width="22.85546875" customWidth="1"/>
-    <col min="23" max="23" width="22.28515625" customWidth="1"/>
-    <col min="24" max="24" width="20.85546875" customWidth="1"/>
-    <col min="25" max="25" width="34.7109375" customWidth="1"/>
-    <col min="26" max="26" width="6.5703125" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" customWidth="1"/>
-    <col min="28" max="29" width="16.28515625" customWidth="1"/>
-    <col min="35" max="35" width="15.140625" customWidth="1"/>
-    <col min="37" max="37" width="22.7109375" customWidth="1"/>
-    <col min="38" max="38" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" customWidth="1"/>
+    <col min="21" max="21" width="22.88671875" customWidth="1"/>
+    <col min="23" max="23" width="22.33203125" customWidth="1"/>
+    <col min="24" max="24" width="20.88671875" customWidth="1"/>
+    <col min="25" max="25" width="34.6640625" customWidth="1"/>
+    <col min="26" max="26" width="14.88671875" customWidth="1"/>
+    <col min="27" max="27" width="16.33203125" customWidth="1"/>
+    <col min="32" max="32" width="15.109375" customWidth="1"/>
+    <col min="34" max="34" width="22.6640625" customWidth="1"/>
+    <col min="35" max="35" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -800,863 +671,594 @@
         <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>48</v>
-      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C2" s="3">
         <v>2018</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="3">
         <v>53080</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O2" s="3">
         <v>8</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="3">
         <v>214</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S2" s="3">
         <v>2</v>
       </c>
       <c r="T2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="V2" s="3">
         <v>2</v>
       </c>
       <c r="W2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>54</v>
+      <c r="Z2" s="3">
+        <v>39</v>
       </c>
       <c r="AA2" s="3">
         <v>39</v>
       </c>
-      <c r="AB2" s="3">
-        <v>39</v>
+      <c r="AB2" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI2">
+        <v>50</v>
+      </c>
+      <c r="AG2">
         <v>20010101</v>
       </c>
+      <c r="AH2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>37</v>
+      </c>
       <c r="AJ2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C3" s="3">
         <v>2018</v>
       </c>
       <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
         <v>56</v>
       </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" t="s">
-        <v>70</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="3">
         <v>53080</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="L3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O3" s="3">
         <v>8</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="3">
         <v>214</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S3" s="3">
         <v>2</v>
       </c>
       <c r="T3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="V3" s="3">
         <v>2</v>
       </c>
       <c r="W3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" s="3" t="s">
+      <c r="Z3" s="3">
+        <v>39</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>39</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AA3" s="3">
-        <v>39</v>
-      </c>
-      <c r="AB3" s="3">
-        <v>39</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="AD3" s="3" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI3">
+        <v>54</v>
+      </c>
+      <c r="AG3">
         <v>20000101</v>
       </c>
+      <c r="AH3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>37</v>
+      </c>
       <c r="AJ3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C4" s="3">
         <v>2018</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
         <v>57</v>
       </c>
-      <c r="F4" t="s">
-        <v>71</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="3">
         <v>53080</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="L4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O4" s="3">
         <v>8</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="3">
         <v>214</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S4" s="3">
         <v>2</v>
       </c>
       <c r="T4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="V4" s="3">
         <v>2</v>
       </c>
       <c r="W4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Y4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>54</v>
+      <c r="Z4" s="3">
+        <v>39</v>
       </c>
       <c r="AA4" s="3">
         <v>39</v>
       </c>
-      <c r="AB4" s="3">
-        <v>39</v>
+      <c r="AB4" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AE4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG4">
+        <v>20150101</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>61</v>
       </c>
-      <c r="AF4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI4">
-        <v>20150101</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>80</v>
-      </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C5" s="3">
         <v>2018</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="3">
         <v>53080</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="L5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O5" s="3">
         <v>8</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="3">
         <v>214</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S5" s="3">
         <v>2</v>
       </c>
       <c r="T5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="V5" s="3">
         <v>2</v>
       </c>
       <c r="W5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="X5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Y5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>69</v>
+      <c r="Z5" s="3">
+        <v>39</v>
       </c>
       <c r="AA5" s="3">
         <v>39</v>
       </c>
-      <c r="AB5" s="3">
-        <v>39</v>
+      <c r="AB5" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI5">
+        <v>55</v>
+      </c>
+      <c r="AG5">
         <v>20190101</v>
       </c>
+      <c r="AH5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>37</v>
+      </c>
       <c r="AJ5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C6" s="3">
         <v>2018</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="3">
         <v>53080</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="L6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O6" s="3">
         <v>8</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="3">
         <v>214</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S6" s="3">
         <v>2</v>
       </c>
       <c r="T6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="V6" s="3">
         <v>2</v>
       </c>
       <c r="W6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="X6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="Y6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Y6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>69</v>
+      <c r="Z6" s="3">
+        <v>39</v>
       </c>
       <c r="AA6" s="3">
         <v>39</v>
       </c>
-      <c r="AB6" s="3">
-        <v>39</v>
+      <c r="AB6" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI6">
+        <v>55</v>
+      </c>
+      <c r="AG6">
         <v>20190101</v>
       </c>
+      <c r="AH6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>37</v>
+      </c>
       <c r="AJ6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2018</v>
-      </c>
-      <c r="D7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="3">
-        <v>88888</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O7" s="3">
-        <v>12</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>214</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S7" s="3">
-        <v>4</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V7" s="3">
-        <v>2</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>66</v>
-      </c>
-      <c r="AB7" s="3">
-        <v>55</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI7">
-        <v>20000101</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2018</v>
-      </c>
-      <c r="D8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="3">
-        <v>88888</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" t="s">
-        <v>79</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O8" s="3">
-        <v>12</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>214</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S8" s="3">
-        <v>4</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V8" s="3">
-        <v>2</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>33</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>43</v>
-      </c>
-      <c r="AC8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI8">
-        <v>20000101</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_CHOICE.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_CHOICE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="63">
   <si>
     <t>VIN</t>
   </si>
@@ -173,24 +173,12 @@
     <t>RESTRAINTS_DISCOUNT</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
     <t>TEST</t>
   </si>
   <si>
-    <t>STAT</t>
-  </si>
-  <si>
-    <t>CHOICE_TIER</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -207,9 +195,6 @@
   </si>
   <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>M</t>
   </si>
   <si>
     <t>invalidVin</t>
@@ -580,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL7"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Z1" activeCellId="1" sqref="AC1:AC1048576 Z1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,15 +587,14 @@
     <col min="23" max="23" width="22.33203125" customWidth="1"/>
     <col min="24" max="24" width="20.88671875" customWidth="1"/>
     <col min="25" max="25" width="34.6640625" customWidth="1"/>
-    <col min="26" max="26" width="6.5546875" customWidth="1"/>
-    <col min="27" max="27" width="14.88671875" customWidth="1"/>
-    <col min="28" max="29" width="16.33203125" customWidth="1"/>
-    <col min="35" max="35" width="15.109375" customWidth="1"/>
-    <col min="37" max="37" width="22.6640625" customWidth="1"/>
-    <col min="38" max="38" width="21.6640625" customWidth="1"/>
+    <col min="26" max="26" width="14.88671875" customWidth="1"/>
+    <col min="27" max="27" width="16.33203125" customWidth="1"/>
+    <col min="33" max="33" width="15.109375" customWidth="1"/>
+    <col min="35" max="35" width="22.6640625" customWidth="1"/>
+    <col min="36" max="36" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,60 +671,54 @@
         <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C2" s="3">
         <v>2018</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -755,13 +733,13 @@
         <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>29</v>
@@ -802,64 +780,58 @@
       <c r="Y2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Z2" s="3" t="s">
-        <v>54</v>
+      <c r="Z2" s="3">
+        <v>39</v>
       </c>
       <c r="AA2" s="3">
         <v>39</v>
       </c>
-      <c r="AB2" s="3">
-        <v>39</v>
+      <c r="AB2" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="AC2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG2">
+        <v>20010101</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI2">
-        <v>20010101</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C3" s="3">
         <v>2018</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
         <v>57</v>
-      </c>
-      <c r="F3" t="s">
-        <v>62</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>28</v>
@@ -871,13 +843,13 @@
         <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>29</v>
@@ -918,64 +890,58 @@
       <c r="Y3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Z3" s="3" t="s">
-        <v>54</v>
+      <c r="Z3" s="3">
+        <v>39</v>
       </c>
       <c r="AA3" s="3">
         <v>39</v>
       </c>
-      <c r="AB3" s="3">
-        <v>39</v>
+      <c r="AB3" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="AC3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG3">
+        <v>20000101</v>
+      </c>
+      <c r="AH3" t="s">
         <v>49</v>
       </c>
-      <c r="AD3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI3">
-        <v>20000101</v>
+      <c r="AI3" t="s">
+        <v>38</v>
       </c>
       <c r="AJ3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C4" s="3">
         <v>2018</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>28</v>
@@ -987,13 +953,13 @@
         <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>29</v>
@@ -1034,64 +1000,58 @@
       <c r="Y4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Z4" s="3" t="s">
-        <v>54</v>
+      <c r="Z4" s="3">
+        <v>39</v>
       </c>
       <c r="AA4" s="3">
         <v>39</v>
       </c>
-      <c r="AB4" s="3">
-        <v>39</v>
+      <c r="AB4" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="AC4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG4">
+        <v>20150101</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>49</v>
       </c>
-      <c r="AD4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI4">
-        <v>20150101</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C5" s="3">
         <v>2018</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>28</v>
@@ -1103,13 +1063,13 @@
         <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>29</v>
@@ -1150,61 +1110,55 @@
       <c r="Y5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Z5" s="3" t="s">
-        <v>61</v>
+      <c r="Z5" s="3">
+        <v>39</v>
       </c>
       <c r="AA5" s="3">
         <v>39</v>
       </c>
-      <c r="AB5" s="3">
-        <v>39</v>
+      <c r="AB5" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="AC5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG5">
+        <v>20190101</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>49</v>
       </c>
-      <c r="AD5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI5">
-        <v>20190101</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="C6" s="3">
         <v>2018</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -1219,13 +1173,13 @@
         <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>29</v>
@@ -1266,47 +1220,41 @@
       <c r="Y6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Z6" s="3" t="s">
-        <v>61</v>
+      <c r="Z6" s="3">
+        <v>39</v>
       </c>
       <c r="AA6" s="3">
         <v>39</v>
       </c>
-      <c r="AB6" s="3">
-        <v>39</v>
+      <c r="AB6" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="AC6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG6">
+        <v>20190101</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>49</v>
       </c>
-      <c r="AD6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI6">
-        <v>20190101</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
     </row>
   </sheetData>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_CHOICE.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NewVIN_CA_CHOICE.xlsx
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="Z1" activeCellId="1" sqref="AC1:AC1048576 Z1:Z1048576"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
